--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSE3380BGearBoxProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{936B580B-DCFA-4353-B69D-5A6F46489364}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D54FED-81F5-40CE-A302-E8D9A1D31D28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12195" xr2:uid="{64A09BAD-E5CB-4BEE-B3E7-4A64E925A8E1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11775" xr2:uid="{64A09BAD-E5CB-4BEE-B3E7-4A64E925A8E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="75">
   <si>
     <t>Shaft A</t>
   </si>
@@ -141,12 +141,129 @@
   </si>
   <si>
     <t>Diameters</t>
+  </si>
+  <si>
+    <t>Tangent</t>
+  </si>
+  <si>
+    <t>Diameter (cm)</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>Input Power</t>
+  </si>
+  <si>
+    <t>Output Power</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Pinion</t>
+  </si>
+  <si>
+    <t>Gear</t>
+  </si>
+  <si>
+    <t>Gear Ceiling</t>
+  </si>
+  <si>
+    <t>Number of Teeth</t>
+  </si>
+  <si>
+    <t>Stage 1 Ratio</t>
+  </si>
+  <si>
+    <t>Stage 2 Ratio</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Bending</t>
+  </si>
+  <si>
+    <t>Stage</t>
+  </si>
+  <si>
+    <t>Ratios</t>
+  </si>
+  <si>
+    <t>Ko</t>
+  </si>
+  <si>
+    <t>Kv</t>
+  </si>
+  <si>
+    <t>Ks</t>
+  </si>
+  <si>
+    <t>Km</t>
+  </si>
+  <si>
+    <t>Kb</t>
+  </si>
+  <si>
+    <t>Kt</t>
+  </si>
+  <si>
+    <t>Kr</t>
+  </si>
+  <si>
+    <t>Cf</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>dsfsdgsd</t>
+  </si>
+  <si>
+    <t>Diametral Pitch (teeth/inch)</t>
+  </si>
+  <si>
+    <t>Contact Stress (Mpa)</t>
+  </si>
+  <si>
+    <t>Bending Stress (Mpa)</t>
+  </si>
+  <si>
+    <t>Contact Stress FOS</t>
+  </si>
+  <si>
+    <t>Bending Stress FOS</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>ContactStress</t>
+  </si>
+  <si>
+    <t>BendingStress</t>
+  </si>
+  <si>
+    <t>ContactFOS</t>
+  </si>
+  <si>
+    <t>BendingFOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -269,11 +386,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,6 +459,30 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -340,25 +492,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -675,28 +847,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3283941C-67C4-4D38-BE88-948384713E28}">
-  <dimension ref="C2:T33"/>
+  <dimension ref="C2:AE1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16:R26"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I84" sqref="D69:I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C2" s="7"/>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
@@ -718,9 +890,9 @@
       <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
@@ -750,17 +922,17 @@
       <c r="N4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="23" t="s">
+      <c r="O4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="24"/>
+      <c r="P4" s="32"/>
       <c r="Q4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="25"/>
+      <c r="S4" s="33"/>
       <c r="T4" s="8" t="s">
         <v>2</v>
       </c>
@@ -834,7 +1006,7 @@
       <c r="S6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="T6" s="29" t="s">
+      <c r="T6" s="27" t="s">
         <v>26</v>
       </c>
     </row>
@@ -845,7 +1017,7 @@
       <c r="N7" s="17">
         <v>3.5268698062177002</v>
       </c>
-      <c r="O7" s="28">
+      <c r="O7" s="26">
         <v>130.47927288879501</v>
       </c>
       <c r="P7" s="17">
@@ -854,7 +1026,7 @@
       <c r="Q7" s="17">
         <v>15.571522057187201</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="26">
         <v>576.08048706865304</v>
       </c>
       <c r="S7" s="17">
@@ -871,7 +1043,7 @@
       <c r="N8" s="17">
         <v>3.52686980621769</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="26">
         <v>163.09909111099401</v>
       </c>
       <c r="P8" s="17">
@@ -880,7 +1052,7 @@
       <c r="Q8" s="17">
         <v>15.571522057187201</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="26">
         <v>720.10060883581696</v>
       </c>
       <c r="S8" s="17">
@@ -897,7 +1069,7 @@
       <c r="N9" s="17">
         <v>3.5268698062177002</v>
       </c>
-      <c r="O9" s="28">
+      <c r="O9" s="26">
         <v>195.71890933319301</v>
       </c>
       <c r="P9" s="17">
@@ -906,7 +1078,7 @@
       <c r="Q9" s="17">
         <v>15.571522057187201</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="26">
         <v>864.12073060297996</v>
       </c>
       <c r="S9" s="17">
@@ -923,7 +1095,7 @@
       <c r="N10" s="17">
         <v>3.5268698062177002</v>
       </c>
-      <c r="O10" s="28">
+      <c r="O10" s="26">
         <v>260.95854577759002</v>
       </c>
       <c r="P10" s="17">
@@ -932,7 +1104,7 @@
       <c r="Q10" s="17">
         <v>15.571522057187201</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="26">
         <v>1152.1609741373099</v>
       </c>
       <c r="S10" s="17">
@@ -944,21 +1116,21 @@
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25" t="s">
+      <c r="E11" s="32"/>
+      <c r="F11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="33"/>
       <c r="M11" s="17">
         <v>20</v>
       </c>
       <c r="N11" s="17">
         <v>3.52686980621769</v>
       </c>
-      <c r="O11" s="28">
+      <c r="O11" s="26">
         <v>326.19818222198802</v>
       </c>
       <c r="P11" s="17">
@@ -967,7 +1139,7 @@
       <c r="Q11" s="17">
         <v>15.571522057187201</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="26">
         <v>1440.20121767163</v>
       </c>
       <c r="S11" s="17">
@@ -997,7 +1169,7 @@
       <c r="N12" s="17">
         <v>3.5268698062177002</v>
       </c>
-      <c r="O12" s="28">
+      <c r="O12" s="26">
         <v>391.437818666385</v>
       </c>
       <c r="P12" s="17">
@@ -1006,7 +1178,7 @@
       <c r="Q12" s="17">
         <v>15.571522057187201</v>
       </c>
-      <c r="R12" s="28">
+      <c r="R12" s="26">
         <v>1728.2414612059599</v>
       </c>
       <c r="S12" s="17">
@@ -1038,7 +1210,7 @@
       <c r="N13" s="17">
         <v>3.5268698062177002</v>
       </c>
-      <c r="O13" s="28">
+      <c r="O13" s="26">
         <v>521.91709155518004</v>
       </c>
       <c r="P13" s="17">
@@ -1047,7 +1219,7 @@
       <c r="Q13" s="17">
         <v>15.571522057187201</v>
       </c>
-      <c r="R13" s="28">
+      <c r="R13" s="26">
         <v>2304.3219482746099</v>
       </c>
       <c r="S13" s="17">
@@ -1064,7 +1236,7 @@
       <c r="N14" s="17">
         <v>3.5268698062177002</v>
       </c>
-      <c r="O14" s="28">
+      <c r="O14" s="26">
         <v>782.87563733277102</v>
       </c>
       <c r="P14" s="17">
@@ -1073,7 +1245,7 @@
       <c r="Q14" s="17">
         <v>15.571522057187201</v>
       </c>
-      <c r="R14" s="28">
+      <c r="R14" s="26">
         <v>3456.4829224119198</v>
       </c>
       <c r="S14" s="17">
@@ -1090,31 +1262,31 @@
       <c r="C16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="36"/>
+      <c r="F16" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="26" t="s">
+      <c r="G16" s="36"/>
+      <c r="H16" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="22" t="s">
+      <c r="I16" s="36"/>
+      <c r="J16" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="N16" s="30" t="s">
+      <c r="K16" s="34"/>
+      <c r="N16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="22" t="s">
+      <c r="O16" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" s="11" t="s">
@@ -1147,13 +1319,13 @@
       <c r="N17" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="P17" s="28" t="s">
+      <c r="P17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="28" t="s">
+      <c r="Q17" s="26" t="s">
         <v>15</v>
       </c>
       <c r="R17" s="13" t="s">
@@ -1191,13 +1363,13 @@
       <c r="N18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="O18" s="32" t="s">
+      <c r="O18" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="P18" s="32" t="s">
+      <c r="P18" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="Q18" s="32" t="s">
+      <c r="Q18" s="30" t="s">
         <v>35</v>
       </c>
       <c r="R18" s="14" t="s">
@@ -1235,13 +1407,13 @@
       <c r="N19" s="17">
         <v>8</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="26">
         <v>5.08</v>
       </c>
-      <c r="P19" s="28">
+      <c r="P19" s="26">
         <v>25.4</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="26">
         <v>5.08</v>
       </c>
       <c r="R19" s="13">
@@ -1279,13 +1451,13 @@
       <c r="N20" s="17">
         <v>10</v>
       </c>
-      <c r="O20" s="28">
+      <c r="O20" s="26">
         <v>4.0640000000000001</v>
       </c>
-      <c r="P20" s="28">
+      <c r="P20" s="26">
         <v>20.32</v>
       </c>
-      <c r="Q20" s="28">
+      <c r="Q20" s="26">
         <v>4.0640000000000001</v>
       </c>
       <c r="R20" s="13">
@@ -1323,13 +1495,13 @@
       <c r="N21" s="17">
         <v>12</v>
       </c>
-      <c r="O21" s="28">
+      <c r="O21" s="26">
         <v>3.3866666666666698</v>
       </c>
-      <c r="P21" s="28">
+      <c r="P21" s="26">
         <v>16.933333333333302</v>
       </c>
-      <c r="Q21" s="28">
+      <c r="Q21" s="26">
         <v>3.3866666666666698</v>
       </c>
       <c r="R21" s="13">
@@ -1367,13 +1539,13 @@
       <c r="N22" s="17">
         <v>16</v>
       </c>
-      <c r="O22" s="28">
+      <c r="O22" s="26">
         <v>2.54</v>
       </c>
-      <c r="P22" s="28">
+      <c r="P22" s="26">
         <v>12.7</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q22" s="26">
         <v>2.54</v>
       </c>
       <c r="R22" s="13">
@@ -1411,13 +1583,13 @@
       <c r="N23" s="17">
         <v>20</v>
       </c>
-      <c r="O23" s="28">
+      <c r="O23" s="26">
         <v>2.032</v>
       </c>
-      <c r="P23" s="28">
+      <c r="P23" s="26">
         <v>10.16</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="26">
         <v>2.032</v>
       </c>
       <c r="R23" s="13">
@@ -1455,13 +1627,13 @@
       <c r="N24" s="17">
         <v>24</v>
       </c>
-      <c r="O24" s="28">
+      <c r="O24" s="26">
         <v>1.69333333333333</v>
       </c>
-      <c r="P24" s="28">
+      <c r="P24" s="26">
         <v>8.4666666666666703</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q24" s="26">
         <v>1.69333333333333</v>
       </c>
       <c r="R24" s="13">
@@ -1499,13 +1671,13 @@
       <c r="N25" s="17">
         <v>32</v>
       </c>
-      <c r="O25" s="28">
+      <c r="O25" s="26">
         <v>1.27</v>
       </c>
-      <c r="P25" s="28">
+      <c r="P25" s="26">
         <v>6.35</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="26">
         <v>1.27</v>
       </c>
       <c r="R25" s="13">
@@ -1516,13 +1688,13 @@
       <c r="N26" s="17">
         <v>48</v>
       </c>
-      <c r="O26" s="28">
+      <c r="O26" s="26">
         <v>0.84666666666666701</v>
       </c>
-      <c r="P26" s="28">
+      <c r="P26" s="26">
         <v>4.2333333333333298</v>
       </c>
-      <c r="Q26" s="28">
+      <c r="Q26" s="26">
         <v>0.84666666666666701</v>
       </c>
       <c r="R26" s="13">
@@ -1530,29 +1702,29 @@
       </c>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E30" s="23" t="s">
+      <c r="E30" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="23" t="s">
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="24"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
-      <c r="F31" s="23" t="s">
+      <c r="F31" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="24"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="25" t="s">
+      <c r="I31" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="25"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="18"/>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.25">
@@ -1578,7 +1750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:22" x14ac:dyDescent="0.25">
       <c r="E33" s="5">
         <v>5</v>
       </c>
@@ -1601,8 +1773,1507 @@
         <v>20</v>
       </c>
     </row>
+    <row r="34" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D39" s="24"/>
+      <c r="E39" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="Q39" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="R39" s="32"/>
+      <c r="S39" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="T39" s="32"/>
+      <c r="U39" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="V39" s="33"/>
+    </row>
+    <row r="40" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D40" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="32"/>
+      <c r="I40" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="32"/>
+      <c r="K40" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L40" s="31"/>
+      <c r="Q40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="S40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="U40" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V40" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D41" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J41" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="25">
+        <v>3.1927437641723402</v>
+      </c>
+      <c r="R41" s="25">
+        <v>11005.859375</v>
+      </c>
+      <c r="S41" s="25">
+        <v>13.2514492426104</v>
+      </c>
+      <c r="T41" s="25">
+        <v>2515.625</v>
+      </c>
+      <c r="U41" s="25">
+        <v>55</v>
+      </c>
+      <c r="V41" s="22">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="42" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D42" s="38">
+        <v>8</v>
+      </c>
+      <c r="E42" s="25">
+        <v>125.698573392612</v>
+      </c>
+      <c r="F42" s="25">
+        <v>45.750539204636297</v>
+      </c>
+      <c r="G42" s="26">
+        <v>5.08</v>
+      </c>
+      <c r="H42" s="25">
+        <v>22.225000000000001</v>
+      </c>
+      <c r="I42" s="26">
+        <v>494.938132733408</v>
+      </c>
+      <c r="J42" s="26">
+        <v>180.14274811825501</v>
+      </c>
+      <c r="K42" s="26">
+        <v>5.08</v>
+      </c>
+      <c r="L42" s="22">
+        <v>22.225000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D43" s="23">
+        <v>10</v>
+      </c>
+      <c r="E43" s="25">
+        <v>157.123216740765</v>
+      </c>
+      <c r="F43" s="25">
+        <v>57.188174005795403</v>
+      </c>
+      <c r="G43" s="26">
+        <v>4.0640000000000001</v>
+      </c>
+      <c r="H43" s="25">
+        <v>17.78</v>
+      </c>
+      <c r="I43" s="26">
+        <v>618.67266591676105</v>
+      </c>
+      <c r="J43" s="26">
+        <v>225.17843514781899</v>
+      </c>
+      <c r="K43" s="26">
+        <v>4.0640000000000001</v>
+      </c>
+      <c r="L43" s="22">
+        <v>17.78</v>
+      </c>
+    </row>
+    <row r="44" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D44" s="23">
+        <v>12</v>
+      </c>
+      <c r="E44" s="25">
+        <v>188.54786008891699</v>
+      </c>
+      <c r="F44" s="25">
+        <v>68.625808806954396</v>
+      </c>
+      <c r="G44" s="26">
+        <v>3.3866666666666698</v>
+      </c>
+      <c r="H44" s="25">
+        <v>14.8166666666667</v>
+      </c>
+      <c r="I44" s="26">
+        <v>742.40719910011205</v>
+      </c>
+      <c r="J44" s="26">
+        <v>270.21412217738299</v>
+      </c>
+      <c r="K44" s="26">
+        <v>3.3866666666666698</v>
+      </c>
+      <c r="L44" s="22">
+        <v>14.8166666666667</v>
+      </c>
+    </row>
+    <row r="45" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D45" s="23">
+        <v>16</v>
+      </c>
+      <c r="E45" s="25">
+        <v>251.39714678522299</v>
+      </c>
+      <c r="F45" s="25">
+        <v>91.501078409272594</v>
+      </c>
+      <c r="G45" s="26">
+        <v>2.54</v>
+      </c>
+      <c r="H45" s="25">
+        <v>11.112500000000001</v>
+      </c>
+      <c r="I45" s="26">
+        <v>989.87626546681702</v>
+      </c>
+      <c r="J45" s="26">
+        <v>360.28549623651099</v>
+      </c>
+      <c r="K45" s="26">
+        <v>2.54</v>
+      </c>
+      <c r="L45" s="22">
+        <v>11.112500000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D46" s="23">
+        <v>20</v>
+      </c>
+      <c r="E46" s="25">
+        <v>314.24643348152898</v>
+      </c>
+      <c r="F46" s="25">
+        <v>114.37634801159101</v>
+      </c>
+      <c r="G46" s="26">
+        <v>2.032</v>
+      </c>
+      <c r="H46" s="25">
+        <v>8.89</v>
+      </c>
+      <c r="I46" s="26">
+        <v>1237.34533183352</v>
+      </c>
+      <c r="J46" s="26">
+        <v>450.356870295639</v>
+      </c>
+      <c r="K46" s="26">
+        <v>2.032</v>
+      </c>
+      <c r="L46" s="22">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="47" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D47" s="23">
+        <v>24</v>
+      </c>
+      <c r="E47" s="25">
+        <v>377.09572017783501</v>
+      </c>
+      <c r="F47" s="25">
+        <v>137.25161761390899</v>
+      </c>
+      <c r="G47" s="26">
+        <v>1.69333333333333</v>
+      </c>
+      <c r="H47" s="25">
+        <v>7.4083333333333297</v>
+      </c>
+      <c r="I47" s="26">
+        <v>1484.81439820022</v>
+      </c>
+      <c r="J47" s="26">
+        <v>540.42824435476598</v>
+      </c>
+      <c r="K47" s="26">
+        <v>1.69333333333333</v>
+      </c>
+      <c r="L47" s="22">
+        <v>7.4083333333333297</v>
+      </c>
+    </row>
+    <row r="48" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D48" s="23">
+        <v>32</v>
+      </c>
+      <c r="E48" s="25">
+        <v>502.794293570447</v>
+      </c>
+      <c r="F48" s="25">
+        <v>183.00215681854499</v>
+      </c>
+      <c r="G48" s="26">
+        <v>1.27</v>
+      </c>
+      <c r="H48" s="25">
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="I48" s="26">
+        <v>1979.7525309336299</v>
+      </c>
+      <c r="J48" s="26">
+        <v>720.57099247302097</v>
+      </c>
+      <c r="K48" s="26">
+        <v>1.27</v>
+      </c>
+      <c r="L48" s="22">
+        <v>5.5562500000000004</v>
+      </c>
+      <c r="T48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="U48" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="D49" s="23">
+        <v>48</v>
+      </c>
+      <c r="E49" s="25">
+        <v>754.19144035567001</v>
+      </c>
+      <c r="F49" s="25">
+        <v>274.50323522781798</v>
+      </c>
+      <c r="G49" s="26">
+        <v>0.84666666666666701</v>
+      </c>
+      <c r="H49" s="25">
+        <v>3.7041666666666702</v>
+      </c>
+      <c r="I49" s="26">
+        <v>2969.62879640045</v>
+      </c>
+      <c r="J49" s="26">
+        <v>1080.8564887095299</v>
+      </c>
+      <c r="K49" s="26">
+        <v>0.84666666666666701</v>
+      </c>
+      <c r="L49" s="22">
+        <v>3.7041666666666702</v>
+      </c>
+      <c r="T49" s="23">
+        <v>3679.7358396213799</v>
+      </c>
+      <c r="U49" s="20">
+        <v>3311.7622556592401</v>
+      </c>
+      <c r="V49" s="24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="56" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" s="31"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="K56" s="31"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="N56" s="32"/>
+    </row>
+    <row r="57" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="G57" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" s="31"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="K57" s="31"/>
+      <c r="L57" s="32"/>
+      <c r="M57" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="N57" s="32"/>
+    </row>
+    <row r="58" spans="4:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="I58" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J58" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L58" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="M58" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="N58" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="O58" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="P58" s="42"/>
+    </row>
+    <row r="59" spans="4:22" x14ac:dyDescent="0.25">
+      <c r="G59" s="23">
+        <v>16</v>
+      </c>
+      <c r="H59" s="23">
+        <v>70</v>
+      </c>
+      <c r="I59" s="23">
+        <v>101</v>
+      </c>
+      <c r="J59" s="20">
+        <v>16</v>
+      </c>
+      <c r="K59" s="20">
+        <v>70</v>
+      </c>
+      <c r="L59" s="20">
+        <v>101</v>
+      </c>
+      <c r="M59" s="23">
+        <v>4.375</v>
+      </c>
+      <c r="N59" s="23">
+        <v>4.375</v>
+      </c>
+      <c r="O59" s="43">
+        <v>19.140625</v>
+      </c>
+    </row>
+    <row r="66" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O66" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="P66" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="S66" s="36"/>
+      <c r="T66" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="U66" s="36"/>
+      <c r="V66" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="W66" s="34"/>
+    </row>
+    <row r="67" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O67" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="P67" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q67" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="R67" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="S67" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="T67" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="U67" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="V67" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="W67" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="O68" s="25">
+        <v>8</v>
+      </c>
+      <c r="P68" s="26">
+        <v>408.94021251821403</v>
+      </c>
+      <c r="Q68" s="26">
+        <v>34.893071010756302</v>
+      </c>
+      <c r="R68" s="26">
+        <v>191.38809704316</v>
+      </c>
+      <c r="S68" s="26">
+        <v>33.437012191942799</v>
+      </c>
+      <c r="T68" s="26">
+        <v>750.54242519912202</v>
+      </c>
+      <c r="U68" s="26">
+        <v>117.535768165021</v>
+      </c>
+      <c r="V68" s="26">
+        <v>351.26133872838398</v>
+      </c>
+      <c r="W68" s="22">
+        <v>112.631098360808</v>
+      </c>
+    </row>
+    <row r="69" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D69" s="46"/>
+      <c r="E69" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="O69" s="25">
+        <v>10</v>
+      </c>
+      <c r="P69" s="26">
+        <v>546.21579865427498</v>
+      </c>
+      <c r="Q69" s="26">
+        <v>62.251249430322098</v>
+      </c>
+      <c r="R69" s="26">
+        <v>255.40237199979899</v>
+      </c>
+      <c r="S69" s="26">
+        <v>59.545297262226597</v>
+      </c>
+      <c r="T69" s="26">
+        <v>1007.5680497977499</v>
+      </c>
+      <c r="U69" s="26">
+        <v>211.82066762460801</v>
+      </c>
+      <c r="V69" s="26">
+        <v>471.123813158757</v>
+      </c>
+      <c r="W69" s="22">
+        <v>202.61319628786401</v>
+      </c>
+    </row>
+    <row r="70" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D70" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E70" s="26">
+        <v>20</v>
+      </c>
+      <c r="F70" s="26">
+        <v>20</v>
+      </c>
+      <c r="G70" s="26">
+        <v>20</v>
+      </c>
+      <c r="H70" s="26">
+        <v>20</v>
+      </c>
+      <c r="I70" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O70" s="25">
+        <v>12</v>
+      </c>
+      <c r="P70" s="26">
+        <v>715.47469013710497</v>
+      </c>
+      <c r="Q70" s="26">
+        <v>106.80906371051201</v>
+      </c>
+      <c r="R70" s="26">
+        <v>334.816091854089</v>
+      </c>
+      <c r="S70" s="26">
+        <v>102.33171685848301</v>
+      </c>
+      <c r="T70" s="26">
+        <v>1325.1227759487699</v>
+      </c>
+      <c r="U70" s="26">
+        <v>366.38003078215098</v>
+      </c>
+      <c r="V70" s="26">
+        <v>620.10918790850496</v>
+      </c>
+      <c r="W70" s="22">
+        <v>351.02168552116501</v>
+      </c>
+    </row>
+    <row r="71" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D71" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="26">
+        <v>764.00452226809603</v>
+      </c>
+      <c r="F71" s="26">
+        <v>358.74707602871598</v>
+      </c>
+      <c r="G71" s="26">
+        <v>1430.2725827265699</v>
+      </c>
+      <c r="H71" s="26">
+        <v>671.60087672510394</v>
+      </c>
+      <c r="I71" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O71" s="25">
+        <v>16</v>
+      </c>
+      <c r="P71" s="26">
+        <v>1066.2458966305301</v>
+      </c>
+      <c r="Q71" s="26">
+        <v>237.21071536810601</v>
+      </c>
+      <c r="R71" s="26">
+        <v>498.93919326437401</v>
+      </c>
+      <c r="S71" s="26">
+        <v>227.24422537039601</v>
+      </c>
+      <c r="T71" s="26">
+        <v>1986.97741570318</v>
+      </c>
+      <c r="U71" s="26">
+        <v>823.76895209829502</v>
+      </c>
+      <c r="V71" s="26">
+        <v>929.78637663071902</v>
+      </c>
+      <c r="W71" s="22">
+        <v>789.15801553596305</v>
+      </c>
+    </row>
+    <row r="72" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D72" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="26">
+        <v>124.04530913284999</v>
+      </c>
+      <c r="F72" s="26">
+        <v>78.799451068691397</v>
+      </c>
+      <c r="G72" s="26">
+        <v>434.73650988479699</v>
+      </c>
+      <c r="H72" s="26">
+        <v>276.16520590675702</v>
+      </c>
+      <c r="I72" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O72" s="25">
+        <v>20</v>
+      </c>
+      <c r="P72" s="26">
+        <v>1577.66171069917</v>
+      </c>
+      <c r="Q72" s="26">
+        <v>519.33468452692796</v>
+      </c>
+      <c r="R72" s="26">
+        <v>740.78967887552199</v>
+      </c>
+      <c r="S72" s="26">
+        <v>500.94201767562998</v>
+      </c>
+      <c r="T72" s="26">
+        <v>2953.4986035576198</v>
+      </c>
+      <c r="U72" s="26">
+        <v>1820.09097959166</v>
+      </c>
+      <c r="V72" s="26">
+        <v>1386.81269073782</v>
+      </c>
+      <c r="W72" s="22">
+        <v>1755.6309540550001</v>
+      </c>
+    </row>
+    <row r="73" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D73" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E73" s="26">
+        <v>2.0305128501001599</v>
+      </c>
+      <c r="F73" s="26">
+        <v>4.3242749660092699</v>
+      </c>
+      <c r="G73" s="26">
+        <v>1.0846331103143101</v>
+      </c>
+      <c r="H73" s="26">
+        <v>2.3098853109969602</v>
+      </c>
+      <c r="I73" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O73" s="25">
+        <v>24</v>
+      </c>
+      <c r="P73" s="26">
+        <v>2565.3696127246499</v>
+      </c>
+      <c r="Q73" s="26">
+        <v>1373.15464347583</v>
+      </c>
+      <c r="R73" s="26">
+        <v>1213.1017644511901</v>
+      </c>
+      <c r="S73" s="26">
+        <v>1343.35898293829</v>
+      </c>
+      <c r="T73" s="26">
+        <v>4819.8640804851402</v>
+      </c>
+      <c r="U73" s="26">
+        <v>4847.1799193365396</v>
+      </c>
+      <c r="V73" s="26">
+        <v>2279.1981285852398</v>
+      </c>
+      <c r="W73" s="22">
+        <v>4742.0024521611303</v>
+      </c>
+    </row>
+    <row r="74" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D74" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E74" s="26">
+        <v>3.6128685811087902</v>
+      </c>
+      <c r="F74" s="26">
+        <v>5.6873416492372302</v>
+      </c>
+      <c r="G74" s="26">
+        <v>1.03087592095442</v>
+      </c>
+      <c r="H74" s="26">
+        <v>1.6227945824258301</v>
+      </c>
+      <c r="I74" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O74" s="25">
+        <v>32</v>
+      </c>
+      <c r="P74" s="26">
+        <v>3833.3872297333</v>
+      </c>
+      <c r="Q74" s="26">
+        <v>3066.0902991083099</v>
+      </c>
+      <c r="R74" s="26">
+        <v>1812.6528214950799</v>
+      </c>
+      <c r="S74" s="26">
+        <v>2999.3481373989798</v>
+      </c>
+      <c r="T74" s="26">
+        <v>7241.2093781684298</v>
+      </c>
+      <c r="U74" s="26">
+        <v>10940.615818808699</v>
+      </c>
+      <c r="V74" s="26">
+        <v>3424.0732343877598</v>
+      </c>
+      <c r="W74" s="22">
+        <v>10702.4622489706</v>
+      </c>
+    </row>
+    <row r="75" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D75" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E75" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="F75" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="G75" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="H75" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="I75" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O75" s="25">
+        <v>48</v>
+      </c>
+      <c r="P75" s="26">
+        <v>6786.3005278699802</v>
+      </c>
+      <c r="Q75" s="26">
+        <v>9609.1668433631494</v>
+      </c>
+      <c r="R75" s="26">
+        <v>3209.0361171234699</v>
+      </c>
+      <c r="S75" s="26">
+        <v>9400.41063170692</v>
+      </c>
+      <c r="T75" s="26">
+        <v>12909.188627842001</v>
+      </c>
+      <c r="U75" s="26">
+        <v>34771.021619083498</v>
+      </c>
+      <c r="V75" s="26">
+        <v>6104.3645767492899</v>
+      </c>
+      <c r="W75" s="22">
+        <v>34015.631805696103</v>
+      </c>
+    </row>
+    <row r="76" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D76" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" s="26">
+        <v>1.2870016018444099</v>
+      </c>
+      <c r="F76" s="26">
+        <v>1.2870016018444099</v>
+      </c>
+      <c r="G76" s="26">
+        <v>1.14552425535837</v>
+      </c>
+      <c r="H76" s="26">
+        <v>1.14552425535837</v>
+      </c>
+      <c r="I76" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D77" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" s="26">
+        <v>0.97971969486925303</v>
+      </c>
+      <c r="F77" s="26">
+        <v>0.97971969486925303</v>
+      </c>
+      <c r="G77" s="26">
+        <v>0.97971969486925303</v>
+      </c>
+      <c r="H77" s="26">
+        <v>0.97971969486925303</v>
+      </c>
+      <c r="I77" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="78" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D78" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E78" s="26">
+        <v>1.0906614800000001</v>
+      </c>
+      <c r="F78" s="26">
+        <v>1.05209005142857</v>
+      </c>
+      <c r="G78" s="26">
+        <v>1.0906614800000001</v>
+      </c>
+      <c r="H78" s="26">
+        <v>1.05209005142857</v>
+      </c>
+      <c r="I78" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D79" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="26">
+        <v>1</v>
+      </c>
+      <c r="F79" s="26">
+        <v>1</v>
+      </c>
+      <c r="G79" s="26">
+        <v>1</v>
+      </c>
+      <c r="H79" s="26">
+        <v>1</v>
+      </c>
+      <c r="I79" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="4:23" x14ac:dyDescent="0.25">
+      <c r="D80" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" s="26">
+        <v>1</v>
+      </c>
+      <c r="F80" s="26">
+        <v>1</v>
+      </c>
+      <c r="G80" s="26">
+        <v>1</v>
+      </c>
+      <c r="H80" s="26">
+        <v>1</v>
+      </c>
+      <c r="I80" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D81" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" s="25">
+        <v>1</v>
+      </c>
+      <c r="F81" s="26">
+        <v>1</v>
+      </c>
+      <c r="G81" s="25">
+        <v>1</v>
+      </c>
+      <c r="H81" s="26">
+        <v>1</v>
+      </c>
+      <c r="I81" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D82" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E82" s="26">
+        <v>1</v>
+      </c>
+      <c r="F82" s="26">
+        <v>1</v>
+      </c>
+      <c r="G82" s="26">
+        <v>1</v>
+      </c>
+      <c r="H82" s="26">
+        <v>1</v>
+      </c>
+      <c r="I82" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D83" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E83" s="26">
+        <v>0.27</v>
+      </c>
+      <c r="F83" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="G83" s="26">
+        <v>0.27</v>
+      </c>
+      <c r="H83" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="I83" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="84" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="D84" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="26">
+        <v>0.13079980429668001</v>
+      </c>
+      <c r="F84" s="26">
+        <v>0.13079980429668001</v>
+      </c>
+      <c r="G84" s="26">
+        <v>0.13079980429668001</v>
+      </c>
+      <c r="H84" s="26">
+        <v>0.13079980429668001</v>
+      </c>
+      <c r="I84" s="22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="89" spans="4:31" ht="138.75" x14ac:dyDescent="0.25">
+      <c r="Q89" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="R89" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="S89" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="T89" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="U89" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="V89" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="W89" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="X89" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y89" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z89" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA89" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB89" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC89" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD89" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE89" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="Q90" s="23">
+        <v>8</v>
+      </c>
+      <c r="R90" s="26">
+        <v>170.355275342233</v>
+      </c>
+      <c r="S90" s="26">
+        <v>17.768780627733999</v>
+      </c>
+      <c r="T90" s="26">
+        <v>9.1063866198654306</v>
+      </c>
+      <c r="U90" s="26">
+        <v>25.2217307078743</v>
+      </c>
+      <c r="V90" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W90" s="26">
+        <v>1.22272231816275</v>
+      </c>
+      <c r="X90" s="26">
+        <v>1.0912333144273401</v>
+      </c>
+      <c r="Y90" s="26">
+        <v>1.0675876057142899</v>
+      </c>
+      <c r="Z90" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA90" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB90" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC90" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE90" s="22">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="91" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="Q91" s="23">
+        <v>10</v>
+      </c>
+      <c r="R91" s="26">
+        <v>228.40364525949801</v>
+      </c>
+      <c r="S91" s="26">
+        <v>31.941294554206799</v>
+      </c>
+      <c r="T91" s="26">
+        <v>6.7920150671741197</v>
+      </c>
+      <c r="U91" s="26">
+        <v>14.0307212420411</v>
+      </c>
+      <c r="V91" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W91" s="26">
+        <v>1.20101735598683</v>
+      </c>
+      <c r="X91" s="26">
+        <v>1.0678167617693599</v>
+      </c>
+      <c r="Y91" s="26">
+        <v>1.06486996428571</v>
+      </c>
+      <c r="Z91" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA91" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB91" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC91" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE91" s="22">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="92" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="Q92" s="23">
+        <v>12</v>
+      </c>
+      <c r="R92" s="26">
+        <v>300.523809276713</v>
+      </c>
+      <c r="S92" s="26">
+        <v>55.297337648857798</v>
+      </c>
+      <c r="T92" s="26">
+        <v>5.1620568890486496</v>
+      </c>
+      <c r="U92" s="26">
+        <v>8.1045384652303802</v>
+      </c>
+      <c r="V92" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W92" s="26">
+        <v>1.18476026059813</v>
+      </c>
+      <c r="X92" s="26">
+        <v>1.0449027001287801</v>
+      </c>
+      <c r="Y92" s="26">
+        <v>1.06100020571429</v>
+      </c>
+      <c r="Z92" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA92" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC92" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD92" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE92" s="22">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="93" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="Q93" s="23">
+        <v>16</v>
+      </c>
+      <c r="R93" s="26">
+        <v>450.43834035607</v>
+      </c>
+      <c r="S93" s="26">
+        <v>124.227330069912</v>
+      </c>
+      <c r="T93" s="26">
+        <v>3.4440252105841802</v>
+      </c>
+      <c r="U93" s="26">
+        <v>3.6075749172729399</v>
+      </c>
+      <c r="V93" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W93" s="26">
+        <v>1.16158672057232</v>
+      </c>
+      <c r="X93" s="26">
+        <v>1.01322852224432</v>
+      </c>
+      <c r="Y93" s="26">
+        <v>1.0576926157142901</v>
+      </c>
+      <c r="Z93" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA93" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB93" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC93" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD93" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE93" s="22">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="94" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="Q94" s="23">
+        <v>20</v>
+      </c>
+      <c r="R94" s="26">
+        <v>671.60087672510394</v>
+      </c>
+      <c r="S94" s="26">
+        <v>276.16520590675702</v>
+      </c>
+      <c r="T94" s="26">
+        <v>2.3098853109969602</v>
+      </c>
+      <c r="U94" s="26">
+        <v>1.6227945824258301</v>
+      </c>
+      <c r="V94" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W94" s="26">
+        <v>1.14552425535837</v>
+      </c>
+      <c r="X94" s="26">
+        <v>0.97971969486925303</v>
+      </c>
+      <c r="Y94" s="26">
+        <v>1.05209005142857</v>
+      </c>
+      <c r="Z94" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA94" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB94" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC94" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD94" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE94" s="22">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="95" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="Q95" s="23">
+        <v>24</v>
+      </c>
+      <c r="R95" s="26">
+        <v>1103.3557869268</v>
+      </c>
+      <c r="S95" s="26">
+        <v>745.37977819453499</v>
+      </c>
+      <c r="T95" s="26">
+        <v>1.4060025047051501</v>
+      </c>
+      <c r="U95" s="26">
+        <v>0.60124974289688404</v>
+      </c>
+      <c r="V95" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W95" s="26">
+        <v>1.1335327900500101</v>
+      </c>
+      <c r="X95" s="26">
+        <v>0.93489004894198202</v>
+      </c>
+      <c r="Y95" s="26">
+        <v>1.0441925128571401</v>
+      </c>
+      <c r="Z95" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA95" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB95" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC95" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD95" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE95" s="22">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="96" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="Q96" s="23">
+        <v>32</v>
+      </c>
+      <c r="R96" s="26">
+        <v>1657.43453334179</v>
+      </c>
+      <c r="S96" s="26">
+        <v>1681.9737695455301</v>
+      </c>
+      <c r="T96" s="26">
+        <v>0.93597724000124405</v>
+      </c>
+      <c r="U96" s="26">
+        <v>0.26644850717326801</v>
+      </c>
+      <c r="V96" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W96" s="26">
+        <v>1.11650027242601</v>
+      </c>
+      <c r="X96" s="26">
+        <v>0.90667986063683403</v>
+      </c>
+      <c r="Y96" s="26">
+        <v>1.0433844902879099</v>
+      </c>
+      <c r="Z96" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA96" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB96" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC96" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD96" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE96" s="22">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="97" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q97" s="23">
+        <v>48</v>
+      </c>
+      <c r="R97" s="26">
+        <v>2954.5608715214398</v>
+      </c>
+      <c r="S97" s="26">
+        <v>5344.8107966000698</v>
+      </c>
+      <c r="T97" s="26">
+        <v>0.52505975251785997</v>
+      </c>
+      <c r="U97" s="26">
+        <v>8.3849441459196705E-2</v>
+      </c>
+      <c r="V97" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W97" s="26">
+        <v>1.0959802446906</v>
+      </c>
+      <c r="X97" s="26">
+        <v>0.86806116549649304</v>
+      </c>
+      <c r="Y97" s="26">
+        <v>1.04252598535714</v>
+      </c>
+      <c r="Z97" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA97" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB97" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC97" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD97" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE97" s="22">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="1048576" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I1048576" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="36">
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="E39:H39"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="N3:P3"/>
@@ -1613,13 +3284,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSE3380BGearBoxProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D54FED-81F5-40CE-A302-E8D9A1D31D28}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEFE005-131D-4788-8D2E-CDF1210B33A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11775" xr2:uid="{64A09BAD-E5CB-4BEE-B3E7-4A64E925A8E1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="86">
   <si>
     <t>Shaft A</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Justification</t>
   </si>
   <si>
-    <t>dsfsdgsd</t>
-  </si>
-  <si>
     <t>Diametral Pitch (teeth/inch)</t>
   </si>
   <si>
@@ -255,6 +252,42 @@
   </si>
   <si>
     <t>BendingFOS</t>
+  </si>
+  <si>
+    <t>$mn = 1$ for Spur Gears</t>
+  </si>
+  <si>
+    <t>Fig. 14-6</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>e 14-10, 99\%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> $ &lt; 250$ \degree F </t>
+  </si>
+  <si>
+    <t>No Rim</t>
+  </si>
+  <si>
+    <t>Eq. 14-30, Crowned Teeth</t>
+  </si>
+  <si>
+    <t>Eq. 14-10</t>
+  </si>
+  <si>
+    <t>Eq. 14-27, AGMA Quality 9 Rating</t>
+  </si>
+  <si>
+    <t>Uniform source, moderate shock</t>
+  </si>
+  <si>
+    <t>(x)</t>
+  </si>
+  <si>
+    <t>(MPa)</t>
   </si>
 </sst>
 </file>
@@ -262,7 +295,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -281,7 +314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -397,11 +430,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -483,25 +525,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -523,14 +553,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -847,28 +901,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3283941C-67C4-4D38-BE88-948384713E28}">
-  <dimension ref="C2:AE1048576"/>
+  <dimension ref="C2:AF126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I84" sqref="D69:I84"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE105" sqref="AE105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C2" s="7"/>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33" t="s">
+      <c r="E2" s="47"/>
+      <c r="F2" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="33"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3" s="7"/>
@@ -890,9 +944,9 @@
       <c r="I3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
     </row>
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4" s="9" t="s">
@@ -922,17 +976,17 @@
       <c r="N4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="32"/>
+      <c r="P4" s="47"/>
       <c r="Q4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="R4" s="33" t="s">
+      <c r="R4" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="33"/>
+      <c r="S4" s="49"/>
       <c r="T4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1116,14 +1170,14 @@
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33" t="s">
+      <c r="E11" s="47"/>
+      <c r="F11" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="49"/>
       <c r="M11" s="17">
         <v>20</v>
       </c>
@@ -1262,31 +1316,31 @@
       <c r="C16" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="35" t="s">
+      <c r="E16" s="45"/>
+      <c r="F16" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="35" t="s">
+      <c r="G16" s="45"/>
+      <c r="H16" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="36"/>
-      <c r="J16" s="34" t="s">
+      <c r="I16" s="45"/>
+      <c r="J16" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="K16" s="34"/>
+      <c r="K16" s="50"/>
       <c r="N16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="O16" s="34" t="s">
+      <c r="O16" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
     </row>
     <row r="17" spans="3:18" x14ac:dyDescent="0.25">
       <c r="C17" s="11" t="s">
@@ -1702,29 +1756,29 @@
       </c>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.25">
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="31" t="s">
+      <c r="F30" s="48"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="47"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
-      <c r="F31" s="31" t="s">
+      <c r="F31" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="G31" s="32"/>
+      <c r="G31" s="47"/>
       <c r="H31" s="10"/>
-      <c r="I31" s="33" t="s">
+      <c r="I31" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="J31" s="33"/>
+      <c r="J31" s="49"/>
       <c r="K31" s="18"/>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.25">
@@ -1780,51 +1834,51 @@
     </row>
     <row r="39" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D39" s="24"/>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="37" t="s">
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="Q39" s="31" t="s">
+      <c r="J39" s="48"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="Q39" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="R39" s="32"/>
-      <c r="S39" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="T39" s="32"/>
-      <c r="U39" s="33" t="s">
+      <c r="R39" s="47"/>
+      <c r="S39" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="T39" s="47"/>
+      <c r="U39" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="V39" s="33"/>
+      <c r="V39" s="49"/>
     </row>
     <row r="40" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D40" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="37" t="s">
+      <c r="F40" s="47"/>
+      <c r="G40" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="H40" s="32"/>
-      <c r="I40" s="37" t="s">
+      <c r="H40" s="47"/>
+      <c r="I40" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="J40" s="32"/>
-      <c r="K40" s="37" t="s">
+      <c r="J40" s="47"/>
+      <c r="K40" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="L40" s="31"/>
+      <c r="L40" s="48"/>
       <c r="Q40" s="4" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1946,7 @@
       </c>
     </row>
     <row r="42" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="D42" s="38">
+      <c r="D42" s="34">
         <v>8</v>
       </c>
       <c r="E42" s="25">
@@ -2142,66 +2196,66 @@
       </c>
     </row>
     <row r="56" spans="4:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G56" s="31" t="s">
+      <c r="G56" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="H56" s="31"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="37" t="s">
+      <c r="H56" s="48"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="K56" s="31"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="37" t="s">
+      <c r="K56" s="48"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="N56" s="32"/>
+      <c r="N56" s="47"/>
     </row>
     <row r="57" spans="4:22" x14ac:dyDescent="0.25">
-      <c r="G57" s="31" t="s">
+      <c r="G57" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="H57" s="31"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="37" t="s">
+      <c r="H57" s="48"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="K57" s="31"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="37" t="s">
+      <c r="K57" s="48"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="N57" s="32"/>
+      <c r="N57" s="47"/>
     </row>
     <row r="58" spans="4:22" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G58" s="39" t="s">
+      <c r="G58" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="I58" s="39" t="s">
+      <c r="I58" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="J58" s="39" t="s">
+      <c r="J58" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="K58" s="40" t="s">
+      <c r="K58" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="L58" s="40" t="s">
+      <c r="L58" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="M58" s="39" t="s">
+      <c r="M58" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="N58" s="41" t="s">
+      <c r="N58" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="O58" s="44" t="s">
+      <c r="O58" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="P58" s="42"/>
+      <c r="P58" s="38"/>
     </row>
     <row r="59" spans="4:22" x14ac:dyDescent="0.25">
       <c r="G59" s="23">
@@ -2228,7 +2282,7 @@
       <c r="N59" s="23">
         <v>4.375</v>
       </c>
-      <c r="O59" s="43">
+      <c r="O59" s="39">
         <v>19.140625</v>
       </c>
     </row>
@@ -2236,22 +2290,22 @@
       <c r="O66" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="P66" s="45" t="s">
+      <c r="P66" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="45" t="s">
+      <c r="Q66" s="45"/>
+      <c r="R66" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="S66" s="36"/>
-      <c r="T66" s="45" t="s">
+      <c r="S66" s="45"/>
+      <c r="T66" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="U66" s="36"/>
-      <c r="V66" s="34" t="s">
+      <c r="U66" s="45"/>
+      <c r="V66" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="W66" s="34"/>
+      <c r="W66" s="50"/>
     </row>
     <row r="67" spans="4:23" x14ac:dyDescent="0.25">
       <c r="O67" s="15" t="s">
@@ -2312,20 +2366,20 @@
       </c>
     </row>
     <row r="69" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D69" s="46"/>
-      <c r="E69" s="47" t="s">
+      <c r="D69" s="41"/>
+      <c r="E69" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F69" s="47" t="s">
+      <c r="F69" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G69" s="47" t="s">
+      <c r="G69" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="H69" s="47" t="s">
+      <c r="H69" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="I69" s="48" t="s">
+      <c r="I69" s="43" t="s">
         <v>63</v>
       </c>
       <c r="O69" s="25">
@@ -2357,8 +2411,8 @@
       </c>
     </row>
     <row r="70" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D70" s="25" t="s">
-        <v>70</v>
+      <c r="D70" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="E70" s="26">
         <v>20</v>
@@ -2372,8 +2426,8 @@
       <c r="H70" s="26">
         <v>20</v>
       </c>
-      <c r="I70" s="22" t="s">
-        <v>64</v>
+      <c r="I70" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="O70" s="25">
         <v>12</v>
@@ -2404,8 +2458,8 @@
       </c>
     </row>
     <row r="71" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D71" s="25" t="s">
-        <v>71</v>
+      <c r="D71" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="E71" s="26">
         <v>764.00452226809603</v>
@@ -2419,8 +2473,8 @@
       <c r="H71" s="26">
         <v>671.60087672510394</v>
       </c>
-      <c r="I71" s="22" t="s">
-        <v>64</v>
+      <c r="I71" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="O71" s="25">
         <v>16</v>
@@ -2451,8 +2505,8 @@
       </c>
     </row>
     <row r="72" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D72" s="25" t="s">
-        <v>72</v>
+      <c r="D72" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="E72" s="26">
         <v>124.04530913284999</v>
@@ -2466,8 +2520,8 @@
       <c r="H72" s="26">
         <v>276.16520590675702</v>
       </c>
-      <c r="I72" s="22" t="s">
-        <v>64</v>
+      <c r="I72" s="32" t="s">
+        <v>85</v>
       </c>
       <c r="O72" s="25">
         <v>20</v>
@@ -2498,23 +2552,23 @@
       </c>
     </row>
     <row r="73" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D73" s="25" t="s">
-        <v>73</v>
+      <c r="D73" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="E73" s="26">
-        <v>2.0305128501001599</v>
+        <v>1.88792135402053</v>
       </c>
       <c r="F73" s="26">
-        <v>4.3242749660092699</v>
+        <v>4.3670305407309096</v>
       </c>
       <c r="G73" s="26">
-        <v>1.0846331103143101</v>
+        <v>1.0953572461193</v>
       </c>
       <c r="H73" s="26">
-        <v>2.3098853109969602</v>
-      </c>
-      <c r="I73" s="22" t="s">
-        <v>64</v>
+        <v>2.5337170622213701</v>
+      </c>
+      <c r="I73" s="32" t="s">
+        <v>84</v>
       </c>
       <c r="O73" s="25">
         <v>24</v>
@@ -2545,23 +2599,23 @@
       </c>
     </row>
     <row r="74" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D74" s="25" t="s">
-        <v>74</v>
+      <c r="D74" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="E74" s="26">
-        <v>3.6128685811087902</v>
+        <v>3.5604753459612599</v>
       </c>
       <c r="F74" s="26">
-        <v>5.6873416492372302</v>
+        <v>5.8785298496381699</v>
       </c>
       <c r="G74" s="26">
-        <v>1.03087592095442</v>
+        <v>1.0655303033213299</v>
       </c>
       <c r="H74" s="26">
-        <v>1.6227945824258301</v>
-      </c>
-      <c r="I74" s="22" t="s">
-        <v>64</v>
+        <v>1.7592459110476899</v>
+      </c>
+      <c r="I74" s="32" t="s">
+        <v>84</v>
       </c>
       <c r="O74" s="25">
         <v>32</v>
@@ -2592,7 +2646,7 @@
       </c>
     </row>
     <row r="75" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="33" t="s">
         <v>53</v>
       </c>
       <c r="E75" s="26">
@@ -2607,8 +2661,8 @@
       <c r="H75" s="26">
         <v>1.25</v>
       </c>
-      <c r="I75" s="22" t="s">
-        <v>64</v>
+      <c r="I75" s="32" t="s">
+        <v>83</v>
       </c>
       <c r="O75" s="25">
         <v>48</v>
@@ -2639,7 +2693,7 @@
       </c>
     </row>
     <row r="76" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D76" s="25" t="s">
+      <c r="D76" s="33" t="s">
         <v>54</v>
       </c>
       <c r="E76" s="26">
@@ -2654,12 +2708,12 @@
       <c r="H76" s="26">
         <v>1.14552425535837</v>
       </c>
-      <c r="I76" s="22" t="s">
-        <v>64</v>
+      <c r="I76" s="32" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D77" s="25" t="s">
+      <c r="D77" s="33" t="s">
         <v>55</v>
       </c>
       <c r="E77" s="26">
@@ -2674,12 +2728,12 @@
       <c r="H77" s="26">
         <v>0.97971969486925303</v>
       </c>
-      <c r="I77" s="22" t="s">
-        <v>64</v>
+      <c r="I77" s="32" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D78" s="25" t="s">
+      <c r="D78" s="33" t="s">
         <v>56</v>
       </c>
       <c r="E78" s="26">
@@ -2694,12 +2748,12 @@
       <c r="H78" s="26">
         <v>1.05209005142857</v>
       </c>
-      <c r="I78" s="22" t="s">
-        <v>64</v>
+      <c r="I78" s="32" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="79" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D79" s="25" t="s">
+      <c r="D79" s="33" t="s">
         <v>57</v>
       </c>
       <c r="E79" s="26">
@@ -2714,12 +2768,12 @@
       <c r="H79" s="26">
         <v>1</v>
       </c>
-      <c r="I79" s="22" t="s">
-        <v>64</v>
+      <c r="I79" s="32" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="80" spans="4:23" x14ac:dyDescent="0.25">
-      <c r="D80" s="25" t="s">
+      <c r="D80" s="33" t="s">
         <v>58</v>
       </c>
       <c r="E80" s="26">
@@ -2734,32 +2788,32 @@
       <c r="H80" s="26">
         <v>1</v>
       </c>
-      <c r="I80" s="22" t="s">
-        <v>64</v>
+      <c r="I80" s="32" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D81" s="25" t="s">
+      <c r="D81" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="E81" s="25">
+      <c r="E81" s="33">
         <v>1</v>
       </c>
       <c r="F81" s="26">
         <v>1</v>
       </c>
-      <c r="G81" s="25">
+      <c r="G81" s="33">
         <v>1</v>
       </c>
       <c r="H81" s="26">
         <v>1</v>
       </c>
       <c r="I81" s="22" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D82" s="25" t="s">
+      <c r="D82" s="33" t="s">
         <v>60</v>
       </c>
       <c r="E82" s="26">
@@ -2774,12 +2828,12 @@
       <c r="H82" s="26">
         <v>1</v>
       </c>
-      <c r="I82" s="22" t="s">
-        <v>64</v>
+      <c r="I82" s="32" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="83" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D83" s="25" t="s">
+      <c r="D83" s="33" t="s">
         <v>61</v>
       </c>
       <c r="E83" s="26">
@@ -2794,12 +2848,12 @@
       <c r="H83" s="26">
         <v>0.41</v>
       </c>
-      <c r="I83" s="22" t="s">
-        <v>64</v>
+      <c r="I83" s="32" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D84" s="25" t="s">
+      <c r="D84" s="33" t="s">
         <v>62</v>
       </c>
       <c r="E84" s="26">
@@ -2814,25 +2868,25 @@
       <c r="H84" s="26">
         <v>0.13079980429668001</v>
       </c>
-      <c r="I84" s="22" t="s">
+      <c r="I84" s="32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89" spans="4:31" ht="138.75" x14ac:dyDescent="0.25">
+      <c r="Q89" s="35" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="89" spans="4:31" ht="138.75" x14ac:dyDescent="0.25">
-      <c r="Q89" s="39" t="s">
+      <c r="R89" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="R89" s="40" t="s">
+      <c r="S89" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="S89" s="40" t="s">
+      <c r="T89" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="T89" s="40" t="s">
+      <c r="U89" s="36" t="s">
         <v>68</v>
-      </c>
-      <c r="U89" s="40" t="s">
-        <v>69</v>
       </c>
       <c r="V89" s="19" t="s">
         <v>53</v>
@@ -2866,79 +2920,51 @@
       </c>
     </row>
     <row r="90" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="Q90" s="23">
+      <c r="Q90" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="R90" s="52"/>
+      <c r="S90" s="52"/>
+      <c r="T90" s="52"/>
+      <c r="U90" s="52"/>
+      <c r="V90" s="52"/>
+      <c r="W90" s="52"/>
+      <c r="X90" s="52"/>
+      <c r="Y90" s="52"/>
+      <c r="Z90" s="52"/>
+      <c r="AA90" s="52"/>
+      <c r="AB90" s="52"/>
+      <c r="AC90" s="52"/>
+      <c r="AD90" s="52"/>
+      <c r="AE90" s="52"/>
+    </row>
+    <row r="91" spans="4:31" x14ac:dyDescent="0.25">
+      <c r="Q91" s="31">
         <v>8</v>
       </c>
-      <c r="R90" s="26">
+      <c r="R91" s="26">
         <v>170.355275342233</v>
       </c>
-      <c r="S90" s="26">
+      <c r="S91" s="26">
         <v>17.768780627733999</v>
       </c>
-      <c r="T90" s="26">
-        <v>9.1063866198654306</v>
-      </c>
-      <c r="U90" s="26">
-        <v>25.2217307078743</v>
-      </c>
-      <c r="V90" s="26">
-        <v>1.25</v>
-      </c>
-      <c r="W90" s="26">
-        <v>1.22272231816275</v>
-      </c>
-      <c r="X90" s="26">
-        <v>1.0912333144273401</v>
-      </c>
-      <c r="Y90" s="26">
-        <v>1.0675876057142899</v>
-      </c>
-      <c r="Z90" s="26">
-        <v>1</v>
-      </c>
-      <c r="AA90" s="26">
-        <v>1</v>
-      </c>
-      <c r="AB90" s="26">
-        <v>1</v>
-      </c>
-      <c r="AC90" s="26">
-        <v>1</v>
-      </c>
-      <c r="AD90" s="26">
-        <v>0.41</v>
-      </c>
-      <c r="AE90" s="22">
-        <v>0.13079980429668001</v>
-      </c>
-    </row>
-    <row r="91" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="Q91" s="23">
-        <v>10</v>
-      </c>
-      <c r="R91" s="26">
-        <v>228.40364525949801</v>
-      </c>
-      <c r="S91" s="26">
-        <v>31.941294554206799</v>
-      </c>
       <c r="T91" s="26">
-        <v>6.7920150671741197</v>
+        <v>9.9888107189092104</v>
       </c>
       <c r="U91" s="26">
-        <v>14.0307212420411</v>
+        <v>27.342478892827899</v>
       </c>
       <c r="V91" s="26">
         <v>1.25</v>
       </c>
       <c r="W91" s="26">
-        <v>1.20101735598683</v>
+        <v>1.22272231816275</v>
       </c>
       <c r="X91" s="26">
-        <v>1.0678167617693599</v>
+        <v>1.0912333144273401</v>
       </c>
       <c r="Y91" s="26">
-        <v>1.06486996428571</v>
+        <v>1.0675876057142899</v>
       </c>
       <c r="Z91" s="26">
         <v>1</v>
@@ -2955,37 +2981,37 @@
       <c r="AD91" s="26">
         <v>0.41</v>
       </c>
-      <c r="AE91" s="22">
+      <c r="AE91" s="32">
         <v>0.13079980429668001</v>
       </c>
     </row>
     <row r="92" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="Q92" s="23">
-        <v>12</v>
+      <c r="Q92" s="31">
+        <v>10</v>
       </c>
       <c r="R92" s="26">
-        <v>300.523809276713</v>
+        <v>228.40364525949801</v>
       </c>
       <c r="S92" s="26">
-        <v>55.297337648857798</v>
+        <v>31.941294554206799</v>
       </c>
       <c r="T92" s="26">
-        <v>5.1620568890486496</v>
+        <v>7.4501726906675403</v>
       </c>
       <c r="U92" s="26">
-        <v>8.1045384652303802</v>
+        <v>15.2104827323324</v>
       </c>
       <c r="V92" s="26">
         <v>1.25</v>
       </c>
       <c r="W92" s="26">
-        <v>1.18476026059813</v>
+        <v>1.20101735598683</v>
       </c>
       <c r="X92" s="26">
-        <v>1.0449027001287801</v>
+        <v>1.0678167617693599</v>
       </c>
       <c r="Y92" s="26">
-        <v>1.06100020571429</v>
+        <v>1.06486996428571</v>
       </c>
       <c r="Z92" s="26">
         <v>1</v>
@@ -3002,37 +3028,37 @@
       <c r="AD92" s="26">
         <v>0.41</v>
       </c>
-      <c r="AE92" s="22">
+      <c r="AE92" s="32">
         <v>0.13079980429668001</v>
       </c>
     </row>
     <row r="93" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="Q93" s="23">
-        <v>16</v>
+      <c r="Q93" s="31">
+        <v>12</v>
       </c>
       <c r="R93" s="26">
-        <v>450.43834035607</v>
+        <v>300.523809276713</v>
       </c>
       <c r="S93" s="26">
-        <v>124.227330069912</v>
+        <v>55.297337648857798</v>
       </c>
       <c r="T93" s="26">
-        <v>3.4440252105841802</v>
+        <v>5.6622688380553603</v>
       </c>
       <c r="U93" s="26">
-        <v>3.6075749172729399</v>
+        <v>8.7860018207430208</v>
       </c>
       <c r="V93" s="26">
         <v>1.25</v>
       </c>
       <c r="W93" s="26">
-        <v>1.16158672057232</v>
+        <v>1.18476026059813</v>
       </c>
       <c r="X93" s="26">
-        <v>1.01322852224432</v>
+        <v>1.0449027001287801</v>
       </c>
       <c r="Y93" s="26">
-        <v>1.0576926157142901</v>
+        <v>1.06100020571429</v>
       </c>
       <c r="Z93" s="26">
         <v>1</v>
@@ -3049,37 +3075,37 @@
       <c r="AD93" s="26">
         <v>0.41</v>
       </c>
-      <c r="AE93" s="22">
+      <c r="AE93" s="32">
         <v>0.13079980429668001</v>
       </c>
     </row>
     <row r="94" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="Q94" s="23">
-        <v>20</v>
+      <c r="Q94" s="31">
+        <v>16</v>
       </c>
       <c r="R94" s="26">
-        <v>671.60087672510394</v>
+        <v>450.43834035607</v>
       </c>
       <c r="S94" s="26">
-        <v>276.16520590675702</v>
+        <v>124.227330069912</v>
       </c>
       <c r="T94" s="26">
-        <v>2.3098853109969602</v>
+        <v>3.7777570155686102</v>
       </c>
       <c r="U94" s="26">
-        <v>1.6227945824258301</v>
+        <v>3.9109148445168</v>
       </c>
       <c r="V94" s="26">
         <v>1.25</v>
       </c>
       <c r="W94" s="26">
-        <v>1.14552425535837</v>
+        <v>1.16158672057232</v>
       </c>
       <c r="X94" s="26">
-        <v>0.97971969486925303</v>
+        <v>1.01322852224432</v>
       </c>
       <c r="Y94" s="26">
-        <v>1.05209005142857</v>
+        <v>1.0576926157142901</v>
       </c>
       <c r="Z94" s="26">
         <v>1</v>
@@ -3096,37 +3122,37 @@
       <c r="AD94" s="26">
         <v>0.41</v>
       </c>
-      <c r="AE94" s="22">
+      <c r="AE94" s="32">
         <v>0.13079980429668001</v>
       </c>
     </row>
     <row r="95" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="Q95" s="23">
-        <v>24</v>
+      <c r="Q95" s="31">
+        <v>20</v>
       </c>
       <c r="R95" s="26">
-        <v>1103.3557869268</v>
+        <v>671.60087672510394</v>
       </c>
       <c r="S95" s="26">
-        <v>745.37977819453499</v>
+        <v>276.16520590675702</v>
       </c>
       <c r="T95" s="26">
-        <v>1.4060025047051501</v>
+        <v>2.5337170622213701</v>
       </c>
       <c r="U95" s="26">
-        <v>0.60124974289688404</v>
+        <v>1.7592459110476899</v>
       </c>
       <c r="V95" s="26">
         <v>1.25</v>
       </c>
       <c r="W95" s="26">
-        <v>1.1335327900500101</v>
+        <v>1.14552425535837</v>
       </c>
       <c r="X95" s="26">
-        <v>0.93489004894198202</v>
+        <v>0.97971969486925303</v>
       </c>
       <c r="Y95" s="26">
-        <v>1.0441925128571401</v>
+        <v>1.05209005142857</v>
       </c>
       <c r="Z95" s="26">
         <v>1</v>
@@ -3143,37 +3169,37 @@
       <c r="AD95" s="26">
         <v>0.41</v>
       </c>
-      <c r="AE95" s="22">
+      <c r="AE95" s="32">
         <v>0.13079980429668001</v>
       </c>
     </row>
     <row r="96" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="Q96" s="23">
-        <v>32</v>
+      <c r="Q96" s="31">
+        <v>24</v>
       </c>
       <c r="R96" s="26">
-        <v>1657.43453334179</v>
+        <v>1103.3557869268</v>
       </c>
       <c r="S96" s="26">
-        <v>1681.9737695455301</v>
+        <v>745.37977819453499</v>
       </c>
       <c r="T96" s="26">
-        <v>0.93597724000124405</v>
+        <v>1.5422464997449801</v>
       </c>
       <c r="U96" s="26">
-        <v>0.26644850717326801</v>
+        <v>0.65180532592649298</v>
       </c>
       <c r="V96" s="26">
         <v>1.25</v>
       </c>
       <c r="W96" s="26">
-        <v>1.11650027242601</v>
+        <v>1.1335327900500101</v>
       </c>
       <c r="X96" s="26">
-        <v>0.90667986063683403</v>
+        <v>0.93489004894198202</v>
       </c>
       <c r="Y96" s="26">
-        <v>1.0433844902879099</v>
+        <v>1.0441925128571401</v>
       </c>
       <c r="Z96" s="26">
         <v>1</v>
@@ -3190,37 +3216,37 @@
       <c r="AD96" s="26">
         <v>0.41</v>
       </c>
-      <c r="AE96" s="22">
+      <c r="AE96" s="32">
         <v>0.13079980429668001</v>
       </c>
     </row>
-    <row r="97" spans="17:31" x14ac:dyDescent="0.25">
-      <c r="Q97" s="23">
-        <v>48</v>
+    <row r="97" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q97" s="31">
+        <v>32</v>
       </c>
       <c r="R97" s="26">
-        <v>2954.5608715214398</v>
+        <v>1657.43453334179</v>
       </c>
       <c r="S97" s="26">
-        <v>5344.8107966000698</v>
+        <v>1681.9737695455301</v>
       </c>
       <c r="T97" s="26">
-        <v>0.52505975251785997</v>
+        <v>1.02667500050834</v>
       </c>
       <c r="U97" s="26">
-        <v>8.3849441459196705E-2</v>
+        <v>0.28885260761015402</v>
       </c>
       <c r="V97" s="26">
         <v>1.25</v>
       </c>
       <c r="W97" s="26">
-        <v>1.0959802446906</v>
+        <v>1.11650027242601</v>
       </c>
       <c r="X97" s="26">
-        <v>0.86806116549649304</v>
+        <v>0.90667986063683403</v>
       </c>
       <c r="Y97" s="26">
-        <v>1.04252598535714</v>
+        <v>1.0433844902879099</v>
       </c>
       <c r="Z97" s="26">
         <v>1</v>
@@ -3237,24 +3263,1270 @@
       <c r="AD97" s="26">
         <v>0.41</v>
       </c>
-      <c r="AE97" s="22">
+      <c r="AE97" s="32">
         <v>0.13079980429668001</v>
       </c>
     </row>
-    <row r="1048576" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I1048576" t="s">
-        <v>64</v>
-      </c>
+    <row r="98" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q98" s="31">
+        <v>48</v>
+      </c>
+      <c r="R98" s="26">
+        <v>2954.5608715214398</v>
+      </c>
+      <c r="S98" s="33">
+        <v>5344.8107966000698</v>
+      </c>
+      <c r="T98" s="26">
+        <v>0.57593892099605504</v>
+      </c>
+      <c r="U98" s="26">
+        <v>9.0899851791602995E-2</v>
+      </c>
+      <c r="V98" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W98" s="26">
+        <v>1.0959802446906</v>
+      </c>
+      <c r="X98" s="26">
+        <v>0.86806116549649304</v>
+      </c>
+      <c r="Y98" s="26">
+        <v>1.04252598535714</v>
+      </c>
+      <c r="Z98" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA98" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB98" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC98" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD98" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE98" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="99" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q99" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="R99" s="47"/>
+      <c r="S99" s="47"/>
+      <c r="T99" s="47"/>
+      <c r="U99" s="47"/>
+      <c r="V99" s="47"/>
+      <c r="W99" s="47"/>
+      <c r="X99" s="47"/>
+      <c r="Y99" s="47"/>
+      <c r="Z99" s="47"/>
+      <c r="AA99" s="47"/>
+      <c r="AB99" s="47"/>
+      <c r="AC99" s="47"/>
+      <c r="AD99" s="47"/>
+      <c r="AE99" s="48"/>
+    </row>
+    <row r="100" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q100" s="31">
+        <v>8</v>
+      </c>
+      <c r="R100" s="26">
+        <v>92.819699677295603</v>
+      </c>
+      <c r="S100" s="26">
+        <v>5.27505230022898</v>
+      </c>
+      <c r="T100" s="26">
+        <v>16.878523016795899</v>
+      </c>
+      <c r="U100" s="26">
+        <v>87.814281049364695</v>
+      </c>
+      <c r="V100" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W100" s="26">
+        <v>1.4292807693941001</v>
+      </c>
+      <c r="X100" s="26">
+        <v>1.0912333144273401</v>
+      </c>
+      <c r="Y100" s="26">
+        <v>1.0675876057142899</v>
+      </c>
+      <c r="Z100" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA100" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB100" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC100" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD100" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE100" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="101" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q101" s="31">
+        <v>10</v>
+      </c>
+      <c r="R101" s="26">
+        <v>123.820599051356</v>
+      </c>
+      <c r="S101" s="26">
+        <v>9.3871174929216998</v>
+      </c>
+      <c r="T101" s="26">
+        <v>12.6526559346198</v>
+      </c>
+      <c r="U101" s="26">
+        <v>49.346876247335402</v>
+      </c>
+      <c r="V101" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W101" s="26">
+        <v>1.3897913048555299</v>
+      </c>
+      <c r="X101" s="26">
+        <v>1.0678167617693599</v>
+      </c>
+      <c r="Y101" s="26">
+        <v>1.06486996428571</v>
+      </c>
+      <c r="Z101" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA101" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB101" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC101" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD101" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE101" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="102" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q102" s="31">
+        <v>12</v>
+      </c>
+      <c r="R102" s="26">
+        <v>162.26208108688601</v>
+      </c>
+      <c r="S102" s="26">
+        <v>16.120575259928401</v>
+      </c>
+      <c r="T102" s="26">
+        <v>9.6551173688967094</v>
+      </c>
+      <c r="U102" s="26">
+        <v>28.735012105545799</v>
+      </c>
+      <c r="V102" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W102" s="26">
+        <v>1.3599638322951</v>
+      </c>
+      <c r="X102" s="26">
+        <v>1.0449027001287801</v>
+      </c>
+      <c r="Y102" s="26">
+        <v>1.06100020571429</v>
+      </c>
+      <c r="Z102" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA102" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB102" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC102" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD102" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE102" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="103" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q103" s="31">
+        <v>16</v>
+      </c>
+      <c r="R103" s="26">
+        <v>241.712879217481</v>
+      </c>
+      <c r="S103" s="26">
+        <v>35.772231715085603</v>
+      </c>
+      <c r="T103" s="26">
+        <v>6.4814892879816801</v>
+      </c>
+      <c r="U103" s="26">
+        <v>12.9492878423645</v>
+      </c>
+      <c r="V103" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W103" s="26">
+        <v>1.3170464412058001</v>
+      </c>
+      <c r="X103" s="26">
+        <v>1.01322852224432</v>
+      </c>
+      <c r="Y103" s="26">
+        <v>1.0576926157142901</v>
+      </c>
+      <c r="Z103" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA103" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB103" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC103" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD103" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE103" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="104" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q104" s="31">
+        <v>20</v>
+      </c>
+      <c r="R104" s="26">
+        <v>358.74707602871598</v>
+      </c>
+      <c r="S104" s="26">
+        <v>78.799451068691397</v>
+      </c>
+      <c r="T104" s="26">
+        <v>4.3670305407309096</v>
+      </c>
+      <c r="U104" s="26">
+        <v>5.8785298496381699</v>
+      </c>
+      <c r="V104" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W104" s="26">
+        <v>1.2870016018444099</v>
+      </c>
+      <c r="X104" s="26">
+        <v>0.97971969486925303</v>
+      </c>
+      <c r="Y104" s="26">
+        <v>1.05209005142857</v>
+      </c>
+      <c r="Z104" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA104" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB104" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC104" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD104" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE104" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="105" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q105" s="31">
+        <v>24</v>
+      </c>
+      <c r="R105" s="26">
+        <v>587.26042073804604</v>
+      </c>
+      <c r="S105" s="26">
+        <v>211.15818282249899</v>
+      </c>
+      <c r="T105" s="26">
+        <v>2.6677422521449699</v>
+      </c>
+      <c r="U105" s="26">
+        <v>2.19373419040926</v>
+      </c>
+      <c r="V105" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W105" s="26">
+        <v>1.26440138809809</v>
+      </c>
+      <c r="X105" s="26">
+        <v>0.93489004894198202</v>
+      </c>
+      <c r="Y105" s="26">
+        <v>1.0441925128571401</v>
+      </c>
+      <c r="Z105" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA105" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB105" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC105" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD105" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE105" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="106" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q106" s="31">
+        <v>32</v>
+      </c>
+      <c r="R106" s="26">
+        <v>877.42088958052602</v>
+      </c>
+      <c r="S106" s="26">
+        <v>471.37049171330199</v>
+      </c>
+      <c r="T106" s="26">
+        <v>1.78552785330231</v>
+      </c>
+      <c r="U106" s="26">
+        <v>0.98271939670790498</v>
+      </c>
+      <c r="V106" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W106" s="26">
+        <v>1.2320336601058599</v>
+      </c>
+      <c r="X106" s="26">
+        <v>0.90667986063683403</v>
+      </c>
+      <c r="Y106" s="26">
+        <v>1.0433844902879099</v>
+      </c>
+      <c r="Z106" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA106" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB106" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC106" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD106" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE106" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="107" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q107" s="31">
+        <v>48</v>
+      </c>
+      <c r="R107" s="26">
+        <v>1553.1989329512</v>
+      </c>
+      <c r="S107" s="26">
+        <v>1477.06844088099</v>
+      </c>
+      <c r="T107" s="26">
+        <v>1.00866631065638</v>
+      </c>
+      <c r="U107" s="26">
+        <v>0.31361100976886203</v>
+      </c>
+      <c r="V107" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W107" s="26">
+        <v>1.19259113243951</v>
+      </c>
+      <c r="X107" s="26">
+        <v>0.86806116549649304</v>
+      </c>
+      <c r="Y107" s="26">
+        <v>1.04252598535714</v>
+      </c>
+      <c r="Z107" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA107" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB107" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC107" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD107" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE107" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="108" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q108" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="R108" s="47"/>
+      <c r="S108" s="47"/>
+      <c r="T108" s="47"/>
+      <c r="U108" s="47"/>
+      <c r="V108" s="47"/>
+      <c r="W108" s="47"/>
+      <c r="X108" s="47"/>
+      <c r="Y108" s="47"/>
+      <c r="Z108" s="47"/>
+      <c r="AA108" s="47"/>
+      <c r="AB108" s="47"/>
+      <c r="AC108" s="47"/>
+      <c r="AD108" s="47"/>
+      <c r="AE108" s="48"/>
+      <c r="AF108" s="38"/>
+    </row>
+    <row r="109" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q109" s="31">
+        <v>8</v>
+      </c>
+      <c r="R109" s="26">
+        <v>363.96594881622599</v>
+      </c>
+      <c r="S109" s="26">
+        <v>28.1520481536662</v>
+      </c>
+      <c r="T109" s="26">
+        <v>4.3044121091843</v>
+      </c>
+      <c r="U109" s="26">
+        <v>16.454395172739101</v>
+      </c>
+      <c r="V109" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W109" s="26">
+        <v>1.22272231816275</v>
+      </c>
+      <c r="X109" s="26">
+        <v>1.0912333144273401</v>
+      </c>
+      <c r="Y109" s="26">
+        <v>1.1138733199999999</v>
+      </c>
+      <c r="Z109" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA109" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB109" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC109" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD109" s="26">
+        <v>0.27</v>
+      </c>
+      <c r="AE109" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="110" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q110" s="31">
+        <v>10</v>
+      </c>
+      <c r="R110" s="26">
+        <v>488.436139006941</v>
+      </c>
+      <c r="S110" s="26">
+        <v>50.699545536515799</v>
+      </c>
+      <c r="T110" s="26">
+        <v>3.2075010677968199</v>
+      </c>
+      <c r="U110" s="26">
+        <v>9.1366681957488503</v>
+      </c>
+      <c r="V110" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W110" s="26">
+        <v>1.20101735598683</v>
+      </c>
+      <c r="X110" s="26">
+        <v>1.0678167617693599</v>
+      </c>
+      <c r="Y110" s="26">
+        <v>1.11308425</v>
+      </c>
+      <c r="Z110" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA110" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB110" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC110" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD110" s="26">
+        <v>0.27</v>
+      </c>
+      <c r="AE110" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="111" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q111" s="31">
+        <v>12</v>
+      </c>
+      <c r="R111" s="26">
+        <v>642.15529579312897</v>
+      </c>
+      <c r="S111" s="26">
+        <v>87.633190642473295</v>
+      </c>
+      <c r="T111" s="26">
+        <v>2.4396893519040899</v>
+      </c>
+      <c r="U111" s="26">
+        <v>5.28595298021584</v>
+      </c>
+      <c r="V111" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W111" s="26">
+        <v>1.18476026059813</v>
+      </c>
+      <c r="X111" s="26">
+        <v>1.0449027001287801</v>
+      </c>
+      <c r="Y111" s="26">
+        <v>1.10728592</v>
+      </c>
+      <c r="Z111" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA111" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB111" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC111" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD111" s="26">
+        <v>0.27</v>
+      </c>
+      <c r="AE111" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="112" spans="17:32" x14ac:dyDescent="0.25">
+      <c r="Q112" s="31">
+        <v>16</v>
+      </c>
+      <c r="R112" s="26">
+        <v>962.55358642065505</v>
+      </c>
+      <c r="S112" s="26">
+        <v>196.89664689764101</v>
+      </c>
+      <c r="T112" s="26">
+        <v>1.6276075010442601</v>
+      </c>
+      <c r="U112" s="26">
+        <v>2.3526298316457201</v>
+      </c>
+      <c r="V112" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W112" s="26">
+        <v>1.16158672057232</v>
+      </c>
+      <c r="X112" s="26">
+        <v>1.01322852224432</v>
+      </c>
+      <c r="Y112" s="26">
+        <v>1.1039783299999999</v>
+      </c>
+      <c r="Z112" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA112" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB112" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC112" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD112" s="26">
+        <v>0.27</v>
+      </c>
+      <c r="AE112" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="113" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q113" s="31">
+        <v>20</v>
+      </c>
+      <c r="R113" s="26">
+        <v>1430.2725827265699</v>
+      </c>
+      <c r="S113" s="26">
+        <v>434.73650988479699</v>
+      </c>
+      <c r="T113" s="26">
+        <v>1.0953572461193</v>
+      </c>
+      <c r="U113" s="26">
+        <v>1.0655303033213299</v>
+      </c>
+      <c r="V113" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W113" s="26">
+        <v>1.14552425535837</v>
+      </c>
+      <c r="X113" s="26">
+        <v>0.97971969486925303</v>
+      </c>
+      <c r="Y113" s="26">
+        <v>1.0906614800000001</v>
+      </c>
+      <c r="Z113" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA113" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB113" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC113" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD113" s="26">
+        <v>0.27</v>
+      </c>
+      <c r="AE113" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="114" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q114" s="31">
+        <v>24</v>
+      </c>
+      <c r="R114" s="26">
+        <v>2333.26877530097</v>
+      </c>
+      <c r="S114" s="26">
+        <v>1156.9591513595101</v>
+      </c>
+      <c r="T114" s="26">
+        <v>0.67144405050945399</v>
+      </c>
+      <c r="U114" s="26">
+        <v>0.40038140041338899</v>
+      </c>
+      <c r="V114" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W114" s="26">
+        <v>1.1335327900500101</v>
+      </c>
+      <c r="X114" s="26">
+        <v>0.93489004894198202</v>
+      </c>
+      <c r="Y114" s="26">
+        <v>1.0673353699999999</v>
+      </c>
+      <c r="Z114" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA114" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB114" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC114" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD114" s="26">
+        <v>0.27</v>
+      </c>
+      <c r="AE114" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="115" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q115" s="31">
+        <v>32</v>
+      </c>
+      <c r="R115" s="26">
+        <v>3505.1110855782099</v>
+      </c>
+      <c r="S115" s="26">
+        <v>2610.91095220137</v>
+      </c>
+      <c r="T115" s="26">
+        <v>0.44696427564345798</v>
+      </c>
+      <c r="U115" s="26">
+        <v>0.17741889084797799</v>
+      </c>
+      <c r="V115" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W115" s="26">
+        <v>1.11650027242601</v>
+      </c>
+      <c r="X115" s="26">
+        <v>0.90667986063683403</v>
+      </c>
+      <c r="Y115" s="26">
+        <v>1.0665890617164799</v>
+      </c>
+      <c r="Z115" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA115" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB115" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC115" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD115" s="26">
+        <v>0.27</v>
+      </c>
+      <c r="AE115" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="116" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q116" s="31">
+        <v>48</v>
+      </c>
+      <c r="R116" s="26">
+        <v>6248.1242948003501</v>
+      </c>
+      <c r="S116" s="26">
+        <v>8296.3641874814293</v>
+      </c>
+      <c r="T116" s="26">
+        <v>0.25074076050617</v>
+      </c>
+      <c r="U116" s="26">
+        <v>5.58346903263209E-2</v>
+      </c>
+      <c r="V116" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W116" s="26">
+        <v>1.0959802446906</v>
+      </c>
+      <c r="X116" s="26">
+        <v>0.86806116549649304</v>
+      </c>
+      <c r="Y116" s="26">
+        <v>1.0656688425</v>
+      </c>
+      <c r="Z116" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA116" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB116" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC116" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD116" s="26">
+        <v>0.27</v>
+      </c>
+      <c r="AE116" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="117" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q117" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="R117" s="47"/>
+      <c r="S117" s="47"/>
+      <c r="T117" s="47"/>
+      <c r="U117" s="47"/>
+      <c r="V117" s="47"/>
+      <c r="W117" s="47"/>
+      <c r="X117" s="47"/>
+      <c r="Y117" s="47"/>
+      <c r="Z117" s="47"/>
+      <c r="AA117" s="47"/>
+      <c r="AB117" s="47"/>
+      <c r="AC117" s="47"/>
+      <c r="AD117" s="47"/>
+      <c r="AE117" s="48"/>
+    </row>
+    <row r="118" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q118" s="31">
+        <v>8</v>
+      </c>
+      <c r="R118" s="26">
+        <v>170.355275342233</v>
+      </c>
+      <c r="S118" s="26">
+        <v>17.768780627733999</v>
+      </c>
+      <c r="T118" s="26">
+        <v>9.9888107189092104</v>
+      </c>
+      <c r="U118" s="26">
+        <v>27.342478892827899</v>
+      </c>
+      <c r="V118" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W118" s="26">
+        <v>1.22272231816275</v>
+      </c>
+      <c r="X118" s="26">
+        <v>1.0912333144273401</v>
+      </c>
+      <c r="Y118" s="26">
+        <v>1.0675876057142899</v>
+      </c>
+      <c r="Z118" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA118" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB118" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC118" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD118" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE118" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="119" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q119" s="31">
+        <v>10</v>
+      </c>
+      <c r="R119" s="26">
+        <v>228.40364525949801</v>
+      </c>
+      <c r="S119" s="26">
+        <v>31.941294554206799</v>
+      </c>
+      <c r="T119" s="26">
+        <v>7.4501726906675403</v>
+      </c>
+      <c r="U119" s="26">
+        <v>15.2104827323324</v>
+      </c>
+      <c r="V119" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W119" s="26">
+        <v>1.20101735598683</v>
+      </c>
+      <c r="X119" s="26">
+        <v>1.0678167617693599</v>
+      </c>
+      <c r="Y119" s="26">
+        <v>1.06486996428571</v>
+      </c>
+      <c r="Z119" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA119" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB119" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC119" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD119" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE119" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="120" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q120" s="31">
+        <v>12</v>
+      </c>
+      <c r="R120" s="26">
+        <v>300.523809276713</v>
+      </c>
+      <c r="S120" s="26">
+        <v>55.297337648857798</v>
+      </c>
+      <c r="T120" s="26">
+        <v>5.6622688380553603</v>
+      </c>
+      <c r="U120" s="26">
+        <v>8.7860018207430208</v>
+      </c>
+      <c r="V120" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W120" s="26">
+        <v>1.18476026059813</v>
+      </c>
+      <c r="X120" s="26">
+        <v>1.0449027001287801</v>
+      </c>
+      <c r="Y120" s="26">
+        <v>1.06100020571429</v>
+      </c>
+      <c r="Z120" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA120" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB120" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC120" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD120" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE120" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="121" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q121" s="31">
+        <v>16</v>
+      </c>
+      <c r="R121" s="26">
+        <v>450.43834035607</v>
+      </c>
+      <c r="S121" s="26">
+        <v>124.227330069912</v>
+      </c>
+      <c r="T121" s="26">
+        <v>3.7777570155686102</v>
+      </c>
+      <c r="U121" s="26">
+        <v>3.9109148445168</v>
+      </c>
+      <c r="V121" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W121" s="26">
+        <v>1.16158672057232</v>
+      </c>
+      <c r="X121" s="26">
+        <v>1.01322852224432</v>
+      </c>
+      <c r="Y121" s="26">
+        <v>1.0576926157142901</v>
+      </c>
+      <c r="Z121" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA121" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB121" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC121" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD121" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE121" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="122" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q122" s="31">
+        <v>20</v>
+      </c>
+      <c r="R122" s="26">
+        <v>671.60087672510394</v>
+      </c>
+      <c r="S122" s="26">
+        <v>276.16520590675702</v>
+      </c>
+      <c r="T122" s="26">
+        <v>2.5337170622213701</v>
+      </c>
+      <c r="U122" s="26">
+        <v>1.7592459110476899</v>
+      </c>
+      <c r="V122" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W122" s="26">
+        <v>1.14552425535837</v>
+      </c>
+      <c r="X122" s="26">
+        <v>0.97971969486925303</v>
+      </c>
+      <c r="Y122" s="26">
+        <v>1.05209005142857</v>
+      </c>
+      <c r="Z122" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA122" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB122" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC122" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD122" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE122" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="123" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q123" s="31">
+        <v>24</v>
+      </c>
+      <c r="R123" s="26">
+        <v>1103.3557869268</v>
+      </c>
+      <c r="S123" s="26">
+        <v>745.37977819453499</v>
+      </c>
+      <c r="T123" s="26">
+        <v>1.5422464997449801</v>
+      </c>
+      <c r="U123" s="26">
+        <v>0.65180532592649298</v>
+      </c>
+      <c r="V123" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W123" s="26">
+        <v>1.1335327900500101</v>
+      </c>
+      <c r="X123" s="26">
+        <v>0.93489004894198202</v>
+      </c>
+      <c r="Y123" s="26">
+        <v>1.0441925128571401</v>
+      </c>
+      <c r="Z123" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA123" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB123" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC123" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD123" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE123" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="124" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q124" s="31">
+        <v>32</v>
+      </c>
+      <c r="R124" s="26">
+        <v>1657.43453334179</v>
+      </c>
+      <c r="S124" s="26">
+        <v>1681.9737695455301</v>
+      </c>
+      <c r="T124" s="26">
+        <v>1.02667500050834</v>
+      </c>
+      <c r="U124" s="26">
+        <v>0.28885260761015402</v>
+      </c>
+      <c r="V124" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W124" s="26">
+        <v>1.11650027242601</v>
+      </c>
+      <c r="X124" s="26">
+        <v>0.90667986063683403</v>
+      </c>
+      <c r="Y124" s="26">
+        <v>1.0433844902879099</v>
+      </c>
+      <c r="Z124" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA124" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB124" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC124" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD124" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE124" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="125" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q125" s="31">
+        <v>48</v>
+      </c>
+      <c r="R125" s="26">
+        <v>2954.5608715214398</v>
+      </c>
+      <c r="S125" s="26">
+        <v>5344.8107966000698</v>
+      </c>
+      <c r="T125" s="26">
+        <v>0.57593892099605504</v>
+      </c>
+      <c r="U125" s="26">
+        <v>9.0899851791602995E-2</v>
+      </c>
+      <c r="V125" s="26">
+        <v>1.25</v>
+      </c>
+      <c r="W125" s="26">
+        <v>1.0959802446906</v>
+      </c>
+      <c r="X125" s="26">
+        <v>0.86806116549649304</v>
+      </c>
+      <c r="Y125" s="26">
+        <v>1.04252598535714</v>
+      </c>
+      <c r="Z125" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA125" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB125" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC125" s="26">
+        <v>1</v>
+      </c>
+      <c r="AD125" s="26">
+        <v>0.41</v>
+      </c>
+      <c r="AE125" s="32">
+        <v>0.13079980429668001</v>
+      </c>
+    </row>
+    <row r="126" spans="17:31" x14ac:dyDescent="0.25">
+      <c r="Q126" s="38"/>
+      <c r="R126" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="M57:N57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J57:L57"/>
+  <mergeCells count="40">
+    <mergeCell ref="Q90:AE90"/>
+    <mergeCell ref="Q99:AE99"/>
+    <mergeCell ref="Q108:AE108"/>
+    <mergeCell ref="Q117:AE117"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
     <mergeCell ref="S39:T39"/>
     <mergeCell ref="U39:V39"/>
     <mergeCell ref="E39:H39"/>
@@ -3267,23 +4539,13 @@
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="K40:L40"/>
     <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="M57:N57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="J56:L56"/>
+    <mergeCell ref="J57:L57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Tables.xlsx
+++ b/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MSE3380BGearBoxProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEFE005-131D-4788-8D2E-CDF1210B33A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962527C8-9D96-4281-8532-E04C5602A57F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="11775" xr2:uid="{64A09BAD-E5CB-4BEE-B3E7-4A64E925A8E1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="98">
   <si>
     <t>Shaft A</t>
   </si>
@@ -288,6 +288,42 @@
   </si>
   <si>
     <t>(MPa)</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Shaft</t>
+  </si>
+  <si>
+    <t>Diameter (m)</t>
+  </si>
+  <si>
+    <t>Tensile Strength (Mpa)</t>
+  </si>
+  <si>
+    <t>Endurance Limit (Mpa)</t>
+  </si>
+  <si>
+    <t>Ka</t>
+  </si>
+  <si>
+    <t>Kc</t>
+  </si>
+  <si>
+    <t>Kd</t>
+  </si>
+  <si>
+    <t>Ke</t>
+  </si>
+  <si>
+    <t>Kf</t>
   </si>
 </sst>
 </file>
@@ -443,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,13 +596,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -584,7 +620,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -901,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3283941C-67C4-4D38-BE88-948384713E28}">
-  <dimension ref="C2:AF126"/>
+  <dimension ref="C2:AH126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE105" sqref="AE105"/>
+    <sheetView tabSelected="1" topLeftCell="F8" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1319,15 +1361,15 @@
       <c r="D16" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="45"/>
+      <c r="E16" s="52"/>
       <c r="F16" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="45"/>
+      <c r="G16" s="52"/>
       <c r="H16" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="45"/>
+      <c r="I16" s="52"/>
       <c r="J16" s="50" t="s">
         <v>25</v>
       </c>
@@ -1342,7 +1384,7 @@
       <c r="Q16" s="50"/>
       <c r="R16" s="50"/>
     </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C17" s="11" t="s">
         <v>19</v>
       </c>
@@ -1386,7 +1428,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C18" s="16">
         <v>8</v>
       </c>
@@ -1430,7 +1472,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C19" s="16">
         <v>10</v>
       </c>
@@ -1474,7 +1516,7 @@
         <v>20.32</v>
       </c>
     </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C20" s="16">
         <v>12</v>
       </c>
@@ -1518,7 +1560,7 @@
         <v>16.256</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C21" s="16">
         <v>16</v>
       </c>
@@ -1562,7 +1604,7 @@
         <v>13.546666666666701</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C22" s="16">
         <v>20</v>
       </c>
@@ -1606,7 +1648,7 @@
         <v>10.16</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C23" s="16">
         <v>24</v>
       </c>
@@ -1649,8 +1691,38 @@
       <c r="R23" s="13">
         <v>8.1280000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="Y23" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z23" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH23" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C24" s="16">
         <v>32</v>
       </c>
@@ -1693,8 +1765,38 @@
       <c r="R24" s="13">
         <v>6.7733333333333299</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="Y24" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z24" s="44">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA24" s="44">
+        <v>800</v>
+      </c>
+      <c r="AB24" s="44">
+        <v>261.78550000000001</v>
+      </c>
+      <c r="AC24" s="44">
+        <v>0.76711010000000002</v>
+      </c>
+      <c r="AD24" s="44">
+        <v>1.0461149999999999</v>
+      </c>
+      <c r="AE24" s="44">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="44">
+        <v>1.0019</v>
+      </c>
+      <c r="AG24" s="44">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AH24" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C25" s="16">
         <v>48</v>
       </c>
@@ -1737,8 +1839,38 @@
       <c r="R25" s="13">
         <v>5.08</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="Y25" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z25" s="44">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA25" s="44">
+        <v>800</v>
+      </c>
+      <c r="AB25" s="44">
+        <v>261.78550000000001</v>
+      </c>
+      <c r="AC25" s="44">
+        <v>0.76711010000000002</v>
+      </c>
+      <c r="AD25" s="44">
+        <v>1.0461149999999999</v>
+      </c>
+      <c r="AE25" s="44">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="44">
+        <v>1.0019</v>
+      </c>
+      <c r="AG25" s="44">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AH25" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:34" x14ac:dyDescent="0.25">
       <c r="N26" s="17">
         <v>48</v>
       </c>
@@ -1754,8 +1886,38 @@
       <c r="R26" s="13">
         <v>3.3866666666666698</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="Y26" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z26" s="44">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA26" s="44">
+        <v>800</v>
+      </c>
+      <c r="AB26" s="44">
+        <v>261.78550000000001</v>
+      </c>
+      <c r="AC26" s="44">
+        <v>0.76711010000000002</v>
+      </c>
+      <c r="AD26" s="44">
+        <v>1.0461149999999999</v>
+      </c>
+      <c r="AE26" s="44">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="44">
+        <v>1.0019</v>
+      </c>
+      <c r="AG26" s="44">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="AH26" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:34" x14ac:dyDescent="0.25">
       <c r="E30" s="48" t="s">
         <v>22</v>
       </c>
@@ -1768,7 +1930,7 @@
       <c r="J30" s="47"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:34" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="48" t="s">
         <v>24</v>
@@ -1781,7 +1943,7 @@
       <c r="J31" s="49"/>
       <c r="K31" s="18"/>
     </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:34" x14ac:dyDescent="0.25">
       <c r="E32" s="4" t="s">
         <v>20</v>
       </c>
@@ -1834,13 +1996,13 @@
     </row>
     <row r="39" spans="4:22" x14ac:dyDescent="0.25">
       <c r="D39" s="24"/>
-      <c r="E39" s="46" t="s">
+      <c r="E39" s="53" t="s">
         <v>23</v>
       </c>
       <c r="F39" s="48"/>
       <c r="G39" s="48"/>
       <c r="H39" s="48"/>
-      <c r="I39" s="46" t="s">
+      <c r="I39" s="53" t="s">
         <v>23</v>
       </c>
       <c r="J39" s="48"/>
@@ -1867,15 +2029,15 @@
         <v>28</v>
       </c>
       <c r="F40" s="47"/>
-      <c r="G40" s="46" t="s">
+      <c r="G40" s="53" t="s">
         <v>38</v>
       </c>
       <c r="H40" s="47"/>
-      <c r="I40" s="46" t="s">
+      <c r="I40" s="53" t="s">
         <v>31</v>
       </c>
       <c r="J40" s="47"/>
-      <c r="K40" s="46" t="s">
+      <c r="K40" s="53" t="s">
         <v>38</v>
       </c>
       <c r="L40" s="48"/>
@@ -2201,12 +2363,12 @@
       </c>
       <c r="H56" s="48"/>
       <c r="I56" s="47"/>
-      <c r="J56" s="46" t="s">
+      <c r="J56" s="53" t="s">
         <v>23</v>
       </c>
       <c r="K56" s="48"/>
       <c r="L56" s="47"/>
-      <c r="M56" s="46" t="s">
+      <c r="M56" s="53" t="s">
         <v>51</v>
       </c>
       <c r="N56" s="47"/>
@@ -2217,12 +2379,12 @@
       </c>
       <c r="H57" s="48"/>
       <c r="I57" s="47"/>
-      <c r="J57" s="46" t="s">
+      <c r="J57" s="53" t="s">
         <v>46</v>
       </c>
       <c r="K57" s="48"/>
       <c r="L57" s="47"/>
-      <c r="M57" s="46" t="s">
+      <c r="M57" s="53" t="s">
         <v>52</v>
       </c>
       <c r="N57" s="47"/>
@@ -2290,18 +2452,18 @@
       <c r="O66" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="P66" s="44" t="s">
+      <c r="P66" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Q66" s="45"/>
-      <c r="R66" s="44" t="s">
+      <c r="Q66" s="52"/>
+      <c r="R66" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="S66" s="45"/>
-      <c r="T66" s="44" t="s">
+      <c r="S66" s="52"/>
+      <c r="T66" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="U66" s="45"/>
+      <c r="U66" s="52"/>
       <c r="V66" s="50" t="s">
         <v>16</v>
       </c>
@@ -2920,23 +3082,23 @@
       </c>
     </row>
     <row r="90" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="Q90" s="52" t="s">
+      <c r="Q90" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="R90" s="52"/>
-      <c r="S90" s="52"/>
-      <c r="T90" s="52"/>
-      <c r="U90" s="52"/>
-      <c r="V90" s="52"/>
-      <c r="W90" s="52"/>
-      <c r="X90" s="52"/>
-      <c r="Y90" s="52"/>
-      <c r="Z90" s="52"/>
-      <c r="AA90" s="52"/>
-      <c r="AB90" s="52"/>
-      <c r="AC90" s="52"/>
-      <c r="AD90" s="52"/>
-      <c r="AE90" s="52"/>
+      <c r="R90" s="46"/>
+      <c r="S90" s="46"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="46"/>
+      <c r="V90" s="46"/>
+      <c r="W90" s="46"/>
+      <c r="X90" s="46"/>
+      <c r="Y90" s="46"/>
+      <c r="Z90" s="46"/>
+      <c r="AA90" s="46"/>
+      <c r="AB90" s="46"/>
+      <c r="AC90" s="46"/>
+      <c r="AD90" s="46"/>
+      <c r="AE90" s="46"/>
     </row>
     <row r="91" spans="4:31" x14ac:dyDescent="0.25">
       <c r="Q91" s="31">
@@ -4506,29 +4668,7 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="Q90:AE90"/>
-    <mergeCell ref="Q99:AE99"/>
-    <mergeCell ref="Q108:AE108"/>
-    <mergeCell ref="Q117:AE117"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="J57:L57"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="I39:L39"/>
     <mergeCell ref="R66:S66"/>
@@ -4545,7 +4685,29 @@
     <mergeCell ref="G57:I57"/>
     <mergeCell ref="G56:I56"/>
     <mergeCell ref="J56:L56"/>
-    <mergeCell ref="J57:L57"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="Q90:AE90"/>
+    <mergeCell ref="Q99:AE99"/>
+    <mergeCell ref="Q108:AE108"/>
+    <mergeCell ref="Q117:AE117"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="U39:V39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
